--- a/Data_Mapping.xlsx
+++ b/Data_Mapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aliceling/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1077E34-CC0D-ED4E-ABAE-96919D914EFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AA4DD64-6841-204B-A742-3A6CF55D60D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3620" yWindow="820" windowWidth="21880" windowHeight="17140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8760" yWindow="500" windowWidth="21880" windowHeight="17140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Mapping" sheetId="16" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="105">
   <si>
     <t>Column Name</t>
   </si>
@@ -380,15 +380,31 @@
   <si>
     <t>grade_date</t>
   </si>
+  <si>
+    <t>resturant_id</t>
+  </si>
+  <si>
+    <t>resturant_name</t>
+  </si>
+  <si>
+    <t>borough</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -405,18 +421,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -447,30 +451,32 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
+      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="14"/>
       <color theme="3"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="14"/>
       <color theme="3"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="14"/>
       <color theme="3"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -546,28 +552,19 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -579,43 +576,61 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1000,307 +1015,307 @@
   <dimension ref="A1:E55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D12" sqref="D5:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="23.83203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="60.6640625" style="8" customWidth="1"/>
-    <col min="3" max="4" width="38.33203125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="65.33203125" style="8" customWidth="1"/>
-    <col min="6" max="16384" width="9.1640625" style="9"/>
+    <col min="1" max="1" width="23.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.6640625" style="5" customWidth="1"/>
+    <col min="3" max="4" width="38.33203125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="65.33203125" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="9.1640625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-    </row>
-    <row r="2" spans="1:5" s="23" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="21" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+    </row>
+    <row r="2" spans="1:5" s="26" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="24" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:5" s="15" customFormat="1" ht="34" x14ac:dyDescent="0.15">
+      <c r="A3" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A4" s="5" t="s">
+      <c r="E3" s="13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="15" customFormat="1" ht="34" x14ac:dyDescent="0.15">
+      <c r="A4" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" s="1" customFormat="1" ht="98" x14ac:dyDescent="0.15">
-      <c r="A5" s="5" t="s">
+      <c r="E4" s="13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="15" customFormat="1" ht="119" x14ac:dyDescent="0.15">
+      <c r="A5" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="E5" s="19" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A6" s="6" t="s">
+      <c r="E5" s="16" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="15" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+      <c r="A6" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="14" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:5" s="15" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+      <c r="A7" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="14" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A8" s="10" t="s">
+    <row r="8" spans="1:5" s="15" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+      <c r="A8" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="13" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:5" s="19" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+      <c r="A9" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D9" s="5" t="s">
+      <c r="C9" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="13" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:5" s="19" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+      <c r="A10" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="13" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="28" x14ac:dyDescent="0.15">
-      <c r="A11" s="5" t="s">
+    <row r="11" spans="1:5" s="19" customFormat="1" ht="34" x14ac:dyDescent="0.15">
+      <c r="A11" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="13" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="112" x14ac:dyDescent="0.15">
-      <c r="A12" s="11" t="s">
+    <row r="12" spans="1:5" s="19" customFormat="1" ht="153" x14ac:dyDescent="0.15">
+      <c r="A12" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="16" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A13" s="11" t="s">
+    <row r="13" spans="1:5" s="19" customFormat="1" ht="34" x14ac:dyDescent="0.15">
+      <c r="A13" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="13" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="28" x14ac:dyDescent="0.15">
-      <c r="A14" s="11" t="s">
+    <row r="14" spans="1:5" s="19" customFormat="1" ht="34" x14ac:dyDescent="0.15">
+      <c r="A14" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="13" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="70" x14ac:dyDescent="0.15">
-      <c r="A15" s="11" t="s">
+    <row r="15" spans="1:5" s="19" customFormat="1" ht="85" x14ac:dyDescent="0.15">
+      <c r="A15" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="E15" s="19" t="s">
+      <c r="E15" s="16" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="28" x14ac:dyDescent="0.15">
-      <c r="A16" s="11" t="s">
+    <row r="16" spans="1:5" s="19" customFormat="1" ht="34" x14ac:dyDescent="0.15">
+      <c r="A16" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="13" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="140" x14ac:dyDescent="0.15">
-      <c r="A17" s="11" t="s">
+    <row r="17" spans="1:5" s="19" customFormat="1" ht="170" x14ac:dyDescent="0.15">
+      <c r="A17" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="E17" s="19" t="s">
+      <c r="E17" s="16" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A18" s="11" t="s">
+    <row r="18" spans="1:5" s="19" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+      <c r="A18" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="13" t="s">
         <v>73</v>
       </c>
       <c r="D18" s="20" t="s">
@@ -1310,14 +1325,14 @@
         <v>101</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A19" s="11" t="s">
+    <row r="19" spans="1:5" s="19" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+      <c r="A19" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="13" t="s">
         <v>73</v>
       </c>
       <c r="D19" s="20" t="s">
@@ -1327,14 +1342,14 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="409.6" x14ac:dyDescent="0.15">
-      <c r="A20" s="11" t="s">
+    <row r="20" spans="1:5" s="19" customFormat="1" ht="409.6" x14ac:dyDescent="0.15">
+      <c r="A20" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="21" t="s">
         <v>68</v>
       </c>
       <c r="D20" s="20" t="s">
@@ -1344,188 +1359,191 @@
         <v>99</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A21" s="5" t="s">
+    <row r="21" spans="1:5" s="19" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+      <c r="A21" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="13" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A22" s="5" t="s">
+    <row r="22" spans="1:5" s="19" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+      <c r="A22" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="13" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A23" s="5" t="s">
+    <row r="23" spans="1:5" s="19" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+      <c r="A23" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="13" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A24" s="5" t="s">
+    <row r="24" spans="1:5" s="19" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+      <c r="A24" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="22" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25" s="7"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" s="13"/>
-      <c r="E26" s="5"/>
+    <row r="25" spans="1:5" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+      <c r="A25" s="14"/>
+    </row>
+    <row r="26" spans="1:5" s="19" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+      <c r="A26" s="23"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A27" s="6"/>
-      <c r="E27" s="6"/>
+      <c r="A27" s="4"/>
+      <c r="E27" s="4"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A28" s="5"/>
-      <c r="E28" s="5"/>
+      <c r="A28" s="3"/>
+      <c r="E28" s="3"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A29" s="6"/>
-      <c r="E29" s="6"/>
+      <c r="A29" s="4"/>
+      <c r="E29" s="4"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A30" s="6"/>
-      <c r="E30" s="6"/>
+      <c r="A30" s="4"/>
+      <c r="E30" s="4"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A31" s="10"/>
-      <c r="E31" s="10"/>
+      <c r="A31" s="7"/>
+      <c r="E31" s="7"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A32" s="5"/>
-      <c r="E32" s="5"/>
+      <c r="A32" s="3"/>
+      <c r="E32" s="3"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A33" s="5"/>
-      <c r="E33" s="5"/>
+      <c r="A33" s="3"/>
+      <c r="E33" s="3"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A34" s="5"/>
-      <c r="E34" s="5"/>
+      <c r="A34" s="3"/>
+      <c r="E34" s="3"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A35" s="5"/>
-      <c r="E35" s="5"/>
+      <c r="A35" s="3"/>
+      <c r="E35" s="3"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A37" s="5"/>
-      <c r="E37" s="5"/>
+      <c r="A37" s="3"/>
+      <c r="E37" s="3"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A38" s="6"/>
-      <c r="E38" s="6"/>
+      <c r="A38" s="4"/>
+      <c r="E38" s="4"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A39" s="5"/>
-      <c r="E39" s="5"/>
+      <c r="A39" s="3"/>
+      <c r="E39" s="3"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A40" s="6"/>
-      <c r="E40" s="6"/>
+      <c r="A40" s="4"/>
+      <c r="E40" s="4"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A41" s="6"/>
-      <c r="E41" s="6"/>
+      <c r="A41" s="4"/>
+      <c r="E41" s="4"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A42" s="10"/>
-      <c r="E42" s="10"/>
+      <c r="A42" s="7"/>
+      <c r="E42" s="7"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A43" s="5"/>
-      <c r="E43" s="5"/>
+      <c r="A43" s="3"/>
+      <c r="E43" s="3"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A44" s="5"/>
-      <c r="E44" s="5"/>
+      <c r="A44" s="3"/>
+      <c r="E44" s="3"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A45" s="5"/>
-      <c r="E45" s="5"/>
+      <c r="A45" s="3"/>
+      <c r="E45" s="3"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A46" s="5"/>
-      <c r="E46" s="5"/>
+      <c r="A46" s="3"/>
+      <c r="E46" s="3"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A48" s="5"/>
-      <c r="E48" s="5"/>
+      <c r="A48" s="3"/>
+      <c r="E48" s="3"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A49" s="6"/>
-      <c r="E49" s="6"/>
+      <c r="A49" s="4"/>
+      <c r="E49" s="4"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A50" s="6"/>
-      <c r="E50" s="6"/>
+      <c r="A50" s="4"/>
+      <c r="E50" s="4"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A51" s="6"/>
-      <c r="E51" s="6"/>
+      <c r="A51" s="4"/>
+      <c r="E51" s="4"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A52" s="5"/>
-      <c r="E52" s="5"/>
+      <c r="A52" s="3"/>
+      <c r="E52" s="3"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A53" s="5"/>
-      <c r="E53" s="5"/>
+      <c r="A53" s="3"/>
+      <c r="E53" s="3"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A54" s="5"/>
-      <c r="E54" s="5"/>
+      <c r="A54" s="3"/>
+      <c r="E54" s="3"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A55" s="5"/>
-      <c r="E55" s="5"/>
+      <c r="A55" s="3"/>
+      <c r="E55" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1550,125 +1568,125 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="23" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="17"/>
+      <c r="B1" s="11"/>
     </row>
     <row r="2" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.15">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.15">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.15">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.15">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.15">
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.15">
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.15">
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.15">
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.15">
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.15">
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.15">
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.15">
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15" x14ac:dyDescent="0.15">
-      <c r="A16" s="3"/>
-      <c r="B16" s="2" t="s">
+      <c r="A16" s="2"/>
+      <c r="B16" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="15" x14ac:dyDescent="0.15">
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="18" spans="2:2" ht="15" x14ac:dyDescent="0.15">
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="19" spans="2:2" ht="15" x14ac:dyDescent="0.15">
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="20" spans="2:2" ht="15" x14ac:dyDescent="0.15">
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="21" spans="2:2" ht="15" x14ac:dyDescent="0.15">
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="22" spans="2:2" ht="15" x14ac:dyDescent="0.15">
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="23" spans="2:2" ht="15" x14ac:dyDescent="0.15">
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="1" t="s">
         <v>26</v>
       </c>
     </row>

--- a/Data_Mapping.xlsx
+++ b/Data_Mapping.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10811"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aliceling/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuching/04. Github - school projects/CIS 9440/Group Project/CIS9440-Group1-7/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AA4DD64-6841-204B-A742-3A6CF55D60D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A7D491C-6661-674D-B084-81CFB8EBD527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8760" yWindow="500" windowWidth="21880" windowHeight="17140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2200" yWindow="1080" windowWidth="21880" windowHeight="17140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Mapping" sheetId="16" r:id="rId1"/>
@@ -398,6 +398,13 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -457,23 +464,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="14"/>
-      <color theme="3"/>
+      <color rgb="FF00B0F0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="3"/>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF00B0F0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -487,7 +487,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -523,114 +523,82 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1012,538 +980,1128 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1FDA7C3-EF5A-4042-9F18-5D82D78D0604}">
-  <dimension ref="A1:E55"/>
+  <dimension ref="A1:DR55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D5:D12"/>
+    <sheetView tabSelected="1" zoomScale="74" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="23.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="60.6640625" style="5" customWidth="1"/>
-    <col min="3" max="4" width="38.33203125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="65.33203125" style="5" customWidth="1"/>
-    <col min="6" max="16384" width="9.1640625" style="6"/>
+    <col min="1" max="1" width="23.83203125" style="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.6640625" style="22" customWidth="1"/>
+    <col min="3" max="4" width="38.33203125" style="22" customWidth="1"/>
+    <col min="5" max="5" width="65.33203125" style="22" customWidth="1"/>
+    <col min="6" max="16384" width="9.1640625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-    </row>
-    <row r="2" spans="1:5" s="26" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="24" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+    </row>
+    <row r="2" spans="1:5" s="15" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="16" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="15" customFormat="1" ht="34" x14ac:dyDescent="0.15">
-      <c r="A3" s="13" t="s">
+    <row r="3" spans="1:5" s="5" customFormat="1" ht="34" x14ac:dyDescent="0.15">
+      <c r="A3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="4" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="15" customFormat="1" ht="34" x14ac:dyDescent="0.15">
-      <c r="A4" s="13" t="s">
+    <row r="4" spans="1:5" s="5" customFormat="1" ht="34" x14ac:dyDescent="0.15">
+      <c r="A4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="4" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="15" customFormat="1" ht="119" x14ac:dyDescent="0.15">
-      <c r="A5" s="13" t="s">
+    <row r="5" spans="1:5" s="5" customFormat="1" ht="119" x14ac:dyDescent="0.15">
+      <c r="A5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="6" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="15" customFormat="1" ht="17" x14ac:dyDescent="0.15">
-      <c r="A6" s="17" t="s">
+    <row r="6" spans="1:5" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+      <c r="A6" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="18" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="15" customFormat="1" ht="17" x14ac:dyDescent="0.15">
-      <c r="A7" s="17" t="s">
+    <row r="7" spans="1:5" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+      <c r="A7" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="18" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="15" customFormat="1" ht="17" x14ac:dyDescent="0.15">
-      <c r="A8" s="18" t="s">
+    <row r="8" spans="1:5" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+      <c r="A8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="4" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="19" customFormat="1" ht="17" x14ac:dyDescent="0.15">
-      <c r="A9" s="13" t="s">
+    <row r="9" spans="1:5" s="8" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+      <c r="A9" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="19" customFormat="1" ht="17" x14ac:dyDescent="0.15">
-      <c r="A10" s="13" t="s">
+    <row r="10" spans="1:5" s="8" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+      <c r="A10" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="4" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="19" customFormat="1" ht="34" x14ac:dyDescent="0.15">
-      <c r="A11" s="13" t="s">
+    <row r="11" spans="1:5" s="8" customFormat="1" ht="34" x14ac:dyDescent="0.15">
+      <c r="A11" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="19" customFormat="1" ht="153" x14ac:dyDescent="0.15">
-      <c r="A12" s="20" t="s">
+    <row r="12" spans="1:5" s="8" customFormat="1" ht="153" x14ac:dyDescent="0.15">
+      <c r="A12" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="6" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="19" customFormat="1" ht="34" x14ac:dyDescent="0.15">
-      <c r="A13" s="20" t="s">
+    <row r="13" spans="1:5" s="8" customFormat="1" ht="34" x14ac:dyDescent="0.15">
+      <c r="A13" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="19" customFormat="1" ht="34" x14ac:dyDescent="0.15">
-      <c r="A14" s="20" t="s">
+    <row r="14" spans="1:5" s="8" customFormat="1" ht="34" x14ac:dyDescent="0.15">
+      <c r="A14" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="E14" s="4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="19" customFormat="1" ht="85" x14ac:dyDescent="0.15">
-      <c r="A15" s="20" t="s">
+    <row r="15" spans="1:5" s="8" customFormat="1" ht="85" x14ac:dyDescent="0.15">
+      <c r="A15" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="6" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="19" customFormat="1" ht="34" x14ac:dyDescent="0.15">
-      <c r="A16" s="20" t="s">
+    <row r="16" spans="1:5" s="8" customFormat="1" ht="34" x14ac:dyDescent="0.15">
+      <c r="A16" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="E16" s="4" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="19" customFormat="1" ht="170" x14ac:dyDescent="0.15">
-      <c r="A17" s="20" t="s">
+    <row r="17" spans="1:122" s="8" customFormat="1" ht="170" x14ac:dyDescent="0.15">
+      <c r="A17" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="6" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="19" customFormat="1" ht="17" x14ac:dyDescent="0.15">
-      <c r="A18" s="20" t="s">
+    <row r="18" spans="1:122" s="8" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+      <c r="A18" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D18" s="20" t="s">
+      <c r="D18" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="E18" s="20" t="s">
+      <c r="E18" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="19" customFormat="1" ht="17" x14ac:dyDescent="0.15">
-      <c r="A19" s="20" t="s">
+    <row r="19" spans="1:122" s="8" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+      <c r="A19" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D19" s="20" t="s">
+      <c r="D19" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="E19" s="20" t="s">
+      <c r="E19" s="9" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="19" customFormat="1" ht="409.6" x14ac:dyDescent="0.15">
-      <c r="A20" s="20" t="s">
+    <row r="20" spans="1:122" s="8" customFormat="1" ht="409.6" x14ac:dyDescent="0.15">
+      <c r="A20" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C20" s="21" t="s">
+      <c r="C20" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="D20" s="20" t="s">
+      <c r="D20" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="E20" s="20" t="s">
+      <c r="E20" s="9" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="19" customFormat="1" ht="17" x14ac:dyDescent="0.15">
-      <c r="A21" s="13" t="s">
+    <row r="21" spans="1:122" s="8" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+      <c r="A21" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="E21" s="13" t="s">
+      <c r="E21" s="4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="19" customFormat="1" ht="17" x14ac:dyDescent="0.15">
-      <c r="A22" s="13" t="s">
+    <row r="22" spans="1:122" s="8" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+      <c r="A22" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E22" s="13" t="s">
+      <c r="E22" s="4" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="19" customFormat="1" ht="17" x14ac:dyDescent="0.15">
-      <c r="A23" s="13" t="s">
+    <row r="23" spans="1:122" s="8" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+      <c r="A23" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="D23" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E23" s="13" t="s">
+      <c r="E23" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="19" customFormat="1" ht="17" x14ac:dyDescent="0.15">
-      <c r="A24" s="22" t="s">
+    <row r="24" spans="1:122" s="8" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+      <c r="A24" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C24" s="22" t="s">
+      <c r="C24" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D24" s="22" t="s">
+      <c r="D24" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E24" s="22" t="s">
+      <c r="E24" s="4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A25" s="14"/>
-    </row>
-    <row r="26" spans="1:5" s="19" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A26" s="23"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A27" s="4"/>
-      <c r="E27" s="4"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A28" s="3"/>
-      <c r="E28" s="3"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A29" s="4"/>
-      <c r="E29" s="4"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A30" s="4"/>
-      <c r="E30" s="4"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A31" s="7"/>
-      <c r="E31" s="7"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A32" s="3"/>
-      <c r="E32" s="3"/>
+    <row r="25" spans="1:122" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+      <c r="A25" s="22"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="8"/>
+      <c r="T25" s="8"/>
+      <c r="U25" s="8"/>
+      <c r="V25" s="8"/>
+      <c r="W25" s="8"/>
+      <c r="X25" s="8"/>
+      <c r="Y25" s="8"/>
+      <c r="Z25" s="8"/>
+      <c r="AA25" s="8"/>
+      <c r="AB25" s="8"/>
+      <c r="AC25" s="8"/>
+      <c r="AD25" s="8"/>
+      <c r="AE25" s="8"/>
+      <c r="AF25" s="8"/>
+      <c r="AG25" s="8"/>
+      <c r="AH25" s="8"/>
+      <c r="AI25" s="8"/>
+      <c r="AJ25" s="8"/>
+      <c r="AK25" s="8"/>
+      <c r="AL25" s="8"/>
+      <c r="AM25" s="8"/>
+      <c r="AN25" s="8"/>
+      <c r="AO25" s="8"/>
+      <c r="AP25" s="8"/>
+      <c r="AQ25" s="8"/>
+      <c r="AR25" s="8"/>
+      <c r="AS25" s="8"/>
+      <c r="AT25" s="8"/>
+      <c r="AU25" s="8"/>
+      <c r="AV25" s="8"/>
+      <c r="AW25" s="8"/>
+      <c r="AX25" s="8"/>
+      <c r="AY25" s="8"/>
+      <c r="AZ25" s="8"/>
+      <c r="BA25" s="8"/>
+      <c r="BB25" s="8"/>
+      <c r="BC25" s="8"/>
+      <c r="BD25" s="8"/>
+      <c r="BE25" s="8"/>
+      <c r="BF25" s="8"/>
+      <c r="BG25" s="8"/>
+      <c r="BH25" s="8"/>
+      <c r="BI25" s="8"/>
+      <c r="BJ25" s="8"/>
+      <c r="BK25" s="8"/>
+      <c r="BL25" s="8"/>
+      <c r="BM25" s="8"/>
+      <c r="BN25" s="8"/>
+      <c r="BO25" s="8"/>
+      <c r="BP25" s="8"/>
+      <c r="BQ25" s="8"/>
+      <c r="BR25" s="8"/>
+      <c r="BS25" s="8"/>
+      <c r="BT25" s="8"/>
+      <c r="BU25" s="8"/>
+      <c r="BV25" s="8"/>
+      <c r="BW25" s="8"/>
+      <c r="BX25" s="8"/>
+      <c r="BY25" s="8"/>
+      <c r="BZ25" s="8"/>
+      <c r="CA25" s="8"/>
+      <c r="CB25" s="8"/>
+      <c r="CC25" s="8"/>
+      <c r="CD25" s="8"/>
+      <c r="CE25" s="8"/>
+      <c r="CF25" s="8"/>
+      <c r="CG25" s="8"/>
+      <c r="CH25" s="8"/>
+      <c r="CI25" s="8"/>
+      <c r="CJ25" s="8"/>
+      <c r="CK25" s="8"/>
+      <c r="CL25" s="8"/>
+      <c r="CM25" s="8"/>
+      <c r="CN25" s="8"/>
+      <c r="CO25" s="8"/>
+      <c r="CP25" s="8"/>
+      <c r="CQ25" s="8"/>
+      <c r="CR25" s="8"/>
+      <c r="CS25" s="8"/>
+      <c r="CT25" s="8"/>
+      <c r="CU25" s="8"/>
+      <c r="CV25" s="8"/>
+      <c r="CW25" s="8"/>
+      <c r="CX25" s="8"/>
+      <c r="CY25" s="8"/>
+      <c r="CZ25" s="8"/>
+      <c r="DA25" s="8"/>
+      <c r="DB25" s="8"/>
+      <c r="DC25" s="8"/>
+      <c r="DD25" s="8"/>
+      <c r="DE25" s="8"/>
+      <c r="DF25" s="8"/>
+      <c r="DG25" s="8"/>
+      <c r="DH25" s="8"/>
+      <c r="DI25" s="8"/>
+      <c r="DJ25" s="8"/>
+      <c r="DK25" s="8"/>
+      <c r="DL25" s="8"/>
+      <c r="DM25" s="8"/>
+      <c r="DN25" s="8"/>
+      <c r="DO25" s="8"/>
+      <c r="DP25" s="8"/>
+      <c r="DQ25" s="8"/>
+      <c r="DR25" s="8"/>
+    </row>
+    <row r="26" spans="1:122" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+      <c r="A26" s="22"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+    </row>
+    <row r="27" spans="1:122" ht="16" x14ac:dyDescent="0.15">
+      <c r="A27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="8"/>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="8"/>
+      <c r="S27" s="8"/>
+      <c r="T27" s="8"/>
+      <c r="U27" s="8"/>
+      <c r="V27" s="8"/>
+      <c r="W27" s="8"/>
+      <c r="X27" s="8"/>
+      <c r="Y27" s="8"/>
+      <c r="Z27" s="8"/>
+      <c r="AA27" s="8"/>
+      <c r="AB27" s="8"/>
+      <c r="AC27" s="8"/>
+      <c r="AD27" s="8"/>
+      <c r="AE27" s="8"/>
+      <c r="AF27" s="8"/>
+      <c r="AG27" s="8"/>
+      <c r="AH27" s="8"/>
+      <c r="AI27" s="8"/>
+      <c r="AJ27" s="8"/>
+      <c r="AK27" s="8"/>
+      <c r="AL27" s="8"/>
+      <c r="AM27" s="8"/>
+      <c r="AN27" s="8"/>
+      <c r="AO27" s="8"/>
+      <c r="AP27" s="8"/>
+      <c r="AQ27" s="8"/>
+      <c r="AR27" s="8"/>
+      <c r="AS27" s="8"/>
+      <c r="AT27" s="8"/>
+      <c r="AU27" s="8"/>
+      <c r="AV27" s="8"/>
+      <c r="AW27" s="8"/>
+      <c r="AX27" s="8"/>
+      <c r="AY27" s="8"/>
+      <c r="AZ27" s="8"/>
+      <c r="BA27" s="8"/>
+      <c r="BB27" s="8"/>
+      <c r="BC27" s="8"/>
+      <c r="BD27" s="8"/>
+      <c r="BE27" s="8"/>
+      <c r="BF27" s="8"/>
+      <c r="BG27" s="8"/>
+      <c r="BH27" s="8"/>
+      <c r="BI27" s="8"/>
+      <c r="BJ27" s="8"/>
+      <c r="BK27" s="8"/>
+      <c r="BL27" s="8"/>
+      <c r="BM27" s="8"/>
+      <c r="BN27" s="8"/>
+      <c r="BO27" s="8"/>
+      <c r="BP27" s="8"/>
+      <c r="BQ27" s="8"/>
+      <c r="BR27" s="8"/>
+      <c r="BS27" s="8"/>
+      <c r="BT27" s="8"/>
+      <c r="BU27" s="8"/>
+      <c r="BV27" s="8"/>
+      <c r="BW27" s="8"/>
+      <c r="BX27" s="8"/>
+      <c r="BY27" s="8"/>
+      <c r="BZ27" s="8"/>
+      <c r="CA27" s="8"/>
+      <c r="CB27" s="8"/>
+      <c r="CC27" s="8"/>
+      <c r="CD27" s="8"/>
+      <c r="CE27" s="8"/>
+      <c r="CF27" s="8"/>
+      <c r="CG27" s="8"/>
+      <c r="CH27" s="8"/>
+      <c r="CI27" s="8"/>
+      <c r="CJ27" s="8"/>
+      <c r="CK27" s="8"/>
+      <c r="CL27" s="8"/>
+      <c r="CM27" s="8"/>
+      <c r="CN27" s="8"/>
+      <c r="CO27" s="8"/>
+      <c r="CP27" s="8"/>
+      <c r="CQ27" s="8"/>
+      <c r="CR27" s="8"/>
+      <c r="CS27" s="8"/>
+      <c r="CT27" s="8"/>
+      <c r="CU27" s="8"/>
+      <c r="CV27" s="8"/>
+      <c r="CW27" s="8"/>
+      <c r="CX27" s="8"/>
+      <c r="CY27" s="8"/>
+      <c r="CZ27" s="8"/>
+      <c r="DA27" s="8"/>
+      <c r="DB27" s="8"/>
+      <c r="DC27" s="8"/>
+      <c r="DD27" s="8"/>
+      <c r="DE27" s="8"/>
+      <c r="DF27" s="8"/>
+      <c r="DG27" s="8"/>
+      <c r="DH27" s="8"/>
+      <c r="DI27" s="8"/>
+      <c r="DJ27" s="8"/>
+      <c r="DK27" s="8"/>
+      <c r="DL27" s="8"/>
+      <c r="DM27" s="8"/>
+      <c r="DN27" s="8"/>
+      <c r="DO27" s="8"/>
+      <c r="DP27" s="8"/>
+      <c r="DQ27" s="8"/>
+      <c r="DR27" s="8"/>
+    </row>
+    <row r="28" spans="1:122" ht="16" x14ac:dyDescent="0.15">
+      <c r="A28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="8"/>
+      <c r="R28" s="8"/>
+      <c r="S28" s="8"/>
+      <c r="T28" s="8"/>
+      <c r="U28" s="8"/>
+      <c r="V28" s="8"/>
+      <c r="W28" s="8"/>
+      <c r="X28" s="8"/>
+      <c r="Y28" s="8"/>
+      <c r="Z28" s="8"/>
+      <c r="AA28" s="8"/>
+      <c r="AB28" s="8"/>
+      <c r="AC28" s="8"/>
+      <c r="AD28" s="8"/>
+      <c r="AE28" s="8"/>
+      <c r="AF28" s="8"/>
+      <c r="AG28" s="8"/>
+      <c r="AH28" s="8"/>
+      <c r="AI28" s="8"/>
+      <c r="AJ28" s="8"/>
+      <c r="AK28" s="8"/>
+      <c r="AL28" s="8"/>
+      <c r="AM28" s="8"/>
+      <c r="AN28" s="8"/>
+      <c r="AO28" s="8"/>
+      <c r="AP28" s="8"/>
+      <c r="AQ28" s="8"/>
+      <c r="AR28" s="8"/>
+      <c r="AS28" s="8"/>
+      <c r="AT28" s="8"/>
+      <c r="AU28" s="8"/>
+      <c r="AV28" s="8"/>
+      <c r="AW28" s="8"/>
+      <c r="AX28" s="8"/>
+      <c r="AY28" s="8"/>
+      <c r="AZ28" s="8"/>
+      <c r="BA28" s="8"/>
+      <c r="BB28" s="8"/>
+      <c r="BC28" s="8"/>
+      <c r="BD28" s="8"/>
+      <c r="BE28" s="8"/>
+      <c r="BF28" s="8"/>
+      <c r="BG28" s="8"/>
+      <c r="BH28" s="8"/>
+      <c r="BI28" s="8"/>
+      <c r="BJ28" s="8"/>
+      <c r="BK28" s="8"/>
+      <c r="BL28" s="8"/>
+      <c r="BM28" s="8"/>
+      <c r="BN28" s="8"/>
+      <c r="BO28" s="8"/>
+      <c r="BP28" s="8"/>
+      <c r="BQ28" s="8"/>
+      <c r="BR28" s="8"/>
+      <c r="BS28" s="8"/>
+      <c r="BT28" s="8"/>
+      <c r="BU28" s="8"/>
+      <c r="BV28" s="8"/>
+      <c r="BW28" s="8"/>
+      <c r="BX28" s="8"/>
+      <c r="BY28" s="8"/>
+      <c r="BZ28" s="8"/>
+      <c r="CA28" s="8"/>
+      <c r="CB28" s="8"/>
+      <c r="CC28" s="8"/>
+      <c r="CD28" s="8"/>
+      <c r="CE28" s="8"/>
+      <c r="CF28" s="8"/>
+      <c r="CG28" s="8"/>
+      <c r="CH28" s="8"/>
+      <c r="CI28" s="8"/>
+      <c r="CJ28" s="8"/>
+      <c r="CK28" s="8"/>
+      <c r="CL28" s="8"/>
+      <c r="CM28" s="8"/>
+      <c r="CN28" s="8"/>
+      <c r="CO28" s="8"/>
+      <c r="CP28" s="8"/>
+      <c r="CQ28" s="8"/>
+      <c r="CR28" s="8"/>
+      <c r="CS28" s="8"/>
+      <c r="CT28" s="8"/>
+      <c r="CU28" s="8"/>
+      <c r="CV28" s="8"/>
+      <c r="CW28" s="8"/>
+      <c r="CX28" s="8"/>
+      <c r="CY28" s="8"/>
+      <c r="CZ28" s="8"/>
+      <c r="DA28" s="8"/>
+      <c r="DB28" s="8"/>
+      <c r="DC28" s="8"/>
+      <c r="DD28" s="8"/>
+      <c r="DE28" s="8"/>
+      <c r="DF28" s="8"/>
+      <c r="DG28" s="8"/>
+      <c r="DH28" s="8"/>
+      <c r="DI28" s="8"/>
+      <c r="DJ28" s="8"/>
+      <c r="DK28" s="8"/>
+      <c r="DL28" s="8"/>
+      <c r="DM28" s="8"/>
+      <c r="DN28" s="8"/>
+      <c r="DO28" s="8"/>
+      <c r="DP28" s="8"/>
+      <c r="DQ28" s="8"/>
+      <c r="DR28" s="8"/>
+    </row>
+    <row r="29" spans="1:122" ht="16" x14ac:dyDescent="0.15">
+      <c r="A29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="8"/>
+      <c r="R29" s="8"/>
+      <c r="S29" s="8"/>
+      <c r="T29" s="8"/>
+      <c r="U29" s="8"/>
+      <c r="V29" s="8"/>
+      <c r="W29" s="8"/>
+      <c r="X29" s="8"/>
+      <c r="Y29" s="8"/>
+      <c r="Z29" s="8"/>
+      <c r="AA29" s="8"/>
+      <c r="AB29" s="8"/>
+      <c r="AC29" s="8"/>
+      <c r="AD29" s="8"/>
+      <c r="AE29" s="8"/>
+      <c r="AF29" s="8"/>
+      <c r="AG29" s="8"/>
+      <c r="AH29" s="8"/>
+      <c r="AI29" s="8"/>
+      <c r="AJ29" s="8"/>
+      <c r="AK29" s="8"/>
+      <c r="AL29" s="8"/>
+      <c r="AM29" s="8"/>
+      <c r="AN29" s="8"/>
+      <c r="AO29" s="8"/>
+      <c r="AP29" s="8"/>
+      <c r="AQ29" s="8"/>
+      <c r="AR29" s="8"/>
+      <c r="AS29" s="8"/>
+      <c r="AT29" s="8"/>
+      <c r="AU29" s="8"/>
+      <c r="AV29" s="8"/>
+      <c r="AW29" s="8"/>
+      <c r="AX29" s="8"/>
+      <c r="AY29" s="8"/>
+      <c r="AZ29" s="8"/>
+      <c r="BA29" s="8"/>
+      <c r="BB29" s="8"/>
+      <c r="BC29" s="8"/>
+      <c r="BD29" s="8"/>
+      <c r="BE29" s="8"/>
+      <c r="BF29" s="8"/>
+      <c r="BG29" s="8"/>
+      <c r="BH29" s="8"/>
+      <c r="BI29" s="8"/>
+      <c r="BJ29" s="8"/>
+      <c r="BK29" s="8"/>
+      <c r="BL29" s="8"/>
+      <c r="BM29" s="8"/>
+      <c r="BN29" s="8"/>
+      <c r="BO29" s="8"/>
+      <c r="BP29" s="8"/>
+      <c r="BQ29" s="8"/>
+      <c r="BR29" s="8"/>
+      <c r="BS29" s="8"/>
+      <c r="BT29" s="8"/>
+      <c r="BU29" s="8"/>
+      <c r="BV29" s="8"/>
+      <c r="BW29" s="8"/>
+      <c r="BX29" s="8"/>
+      <c r="BY29" s="8"/>
+      <c r="BZ29" s="8"/>
+      <c r="CA29" s="8"/>
+      <c r="CB29" s="8"/>
+      <c r="CC29" s="8"/>
+      <c r="CD29" s="8"/>
+      <c r="CE29" s="8"/>
+      <c r="CF29" s="8"/>
+      <c r="CG29" s="8"/>
+      <c r="CH29" s="8"/>
+      <c r="CI29" s="8"/>
+      <c r="CJ29" s="8"/>
+      <c r="CK29" s="8"/>
+      <c r="CL29" s="8"/>
+      <c r="CM29" s="8"/>
+      <c r="CN29" s="8"/>
+      <c r="CO29" s="8"/>
+      <c r="CP29" s="8"/>
+      <c r="CQ29" s="8"/>
+      <c r="CR29" s="8"/>
+      <c r="CS29" s="8"/>
+      <c r="CT29" s="8"/>
+      <c r="CU29" s="8"/>
+      <c r="CV29" s="8"/>
+      <c r="CW29" s="8"/>
+      <c r="CX29" s="8"/>
+      <c r="CY29" s="8"/>
+      <c r="CZ29" s="8"/>
+      <c r="DA29" s="8"/>
+      <c r="DB29" s="8"/>
+      <c r="DC29" s="8"/>
+      <c r="DD29" s="8"/>
+      <c r="DE29" s="8"/>
+      <c r="DF29" s="8"/>
+      <c r="DG29" s="8"/>
+      <c r="DH29" s="8"/>
+      <c r="DI29" s="8"/>
+      <c r="DJ29" s="8"/>
+      <c r="DK29" s="8"/>
+      <c r="DL29" s="8"/>
+      <c r="DM29" s="8"/>
+      <c r="DN29" s="8"/>
+      <c r="DO29" s="8"/>
+      <c r="DP29" s="8"/>
+      <c r="DQ29" s="8"/>
+      <c r="DR29" s="8"/>
+    </row>
+    <row r="30" spans="1:122" ht="16" x14ac:dyDescent="0.15">
+      <c r="A30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="8"/>
+      <c r="S30" s="8"/>
+      <c r="T30" s="8"/>
+      <c r="U30" s="8"/>
+      <c r="V30" s="8"/>
+      <c r="W30" s="8"/>
+      <c r="X30" s="8"/>
+      <c r="Y30" s="8"/>
+      <c r="Z30" s="8"/>
+      <c r="AA30" s="8"/>
+      <c r="AB30" s="8"/>
+      <c r="AC30" s="8"/>
+      <c r="AD30" s="8"/>
+      <c r="AE30" s="8"/>
+      <c r="AF30" s="8"/>
+      <c r="AG30" s="8"/>
+      <c r="AH30" s="8"/>
+      <c r="AI30" s="8"/>
+      <c r="AJ30" s="8"/>
+      <c r="AK30" s="8"/>
+      <c r="AL30" s="8"/>
+      <c r="AM30" s="8"/>
+      <c r="AN30" s="8"/>
+      <c r="AO30" s="8"/>
+      <c r="AP30" s="8"/>
+      <c r="AQ30" s="8"/>
+      <c r="AR30" s="8"/>
+      <c r="AS30" s="8"/>
+      <c r="AT30" s="8"/>
+      <c r="AU30" s="8"/>
+      <c r="AV30" s="8"/>
+      <c r="AW30" s="8"/>
+      <c r="AX30" s="8"/>
+      <c r="AY30" s="8"/>
+      <c r="AZ30" s="8"/>
+      <c r="BA30" s="8"/>
+      <c r="BB30" s="8"/>
+      <c r="BC30" s="8"/>
+      <c r="BD30" s="8"/>
+      <c r="BE30" s="8"/>
+      <c r="BF30" s="8"/>
+      <c r="BG30" s="8"/>
+      <c r="BH30" s="8"/>
+      <c r="BI30" s="8"/>
+      <c r="BJ30" s="8"/>
+      <c r="BK30" s="8"/>
+      <c r="BL30" s="8"/>
+      <c r="BM30" s="8"/>
+      <c r="BN30" s="8"/>
+      <c r="BO30" s="8"/>
+      <c r="BP30" s="8"/>
+      <c r="BQ30" s="8"/>
+      <c r="BR30" s="8"/>
+      <c r="BS30" s="8"/>
+      <c r="BT30" s="8"/>
+      <c r="BU30" s="8"/>
+      <c r="BV30" s="8"/>
+      <c r="BW30" s="8"/>
+      <c r="BX30" s="8"/>
+      <c r="BY30" s="8"/>
+      <c r="BZ30" s="8"/>
+      <c r="CA30" s="8"/>
+      <c r="CB30" s="8"/>
+      <c r="CC30" s="8"/>
+      <c r="CD30" s="8"/>
+      <c r="CE30" s="8"/>
+      <c r="CF30" s="8"/>
+      <c r="CG30" s="8"/>
+      <c r="CH30" s="8"/>
+      <c r="CI30" s="8"/>
+      <c r="CJ30" s="8"/>
+      <c r="CK30" s="8"/>
+      <c r="CL30" s="8"/>
+      <c r="CM30" s="8"/>
+      <c r="CN30" s="8"/>
+      <c r="CO30" s="8"/>
+      <c r="CP30" s="8"/>
+      <c r="CQ30" s="8"/>
+      <c r="CR30" s="8"/>
+      <c r="CS30" s="8"/>
+      <c r="CT30" s="8"/>
+      <c r="CU30" s="8"/>
+      <c r="CV30" s="8"/>
+      <c r="CW30" s="8"/>
+      <c r="CX30" s="8"/>
+      <c r="CY30" s="8"/>
+      <c r="CZ30" s="8"/>
+      <c r="DA30" s="8"/>
+      <c r="DB30" s="8"/>
+      <c r="DC30" s="8"/>
+      <c r="DD30" s="8"/>
+      <c r="DE30" s="8"/>
+      <c r="DF30" s="8"/>
+      <c r="DG30" s="8"/>
+      <c r="DH30" s="8"/>
+      <c r="DI30" s="8"/>
+      <c r="DJ30" s="8"/>
+      <c r="DK30" s="8"/>
+      <c r="DL30" s="8"/>
+      <c r="DM30" s="8"/>
+      <c r="DN30" s="8"/>
+      <c r="DO30" s="8"/>
+      <c r="DP30" s="8"/>
+      <c r="DQ30" s="8"/>
+      <c r="DR30" s="8"/>
+    </row>
+    <row r="31" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A31" s="24"/>
+      <c r="E31" s="24"/>
+    </row>
+    <row r="32" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A32" s="23"/>
+      <c r="E32" s="23"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A33" s="3"/>
-      <c r="E33" s="3"/>
+      <c r="A33" s="23"/>
+      <c r="E33" s="23"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A34" s="3"/>
-      <c r="E34" s="3"/>
+      <c r="A34" s="23"/>
+      <c r="E34" s="23"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A35" s="3"/>
-      <c r="E35" s="3"/>
+      <c r="A35" s="23"/>
+      <c r="E35" s="23"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A37" s="3"/>
-      <c r="E37" s="3"/>
+      <c r="A37" s="23"/>
+      <c r="E37" s="23"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A38" s="4"/>
-      <c r="E38" s="4"/>
+      <c r="A38" s="21"/>
+      <c r="E38" s="21"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A39" s="3"/>
-      <c r="E39" s="3"/>
+      <c r="A39" s="23"/>
+      <c r="E39" s="23"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A40" s="4"/>
-      <c r="E40" s="4"/>
+      <c r="A40" s="21"/>
+      <c r="E40" s="21"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A41" s="4"/>
-      <c r="E41" s="4"/>
+      <c r="A41" s="21"/>
+      <c r="E41" s="21"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A42" s="7"/>
-      <c r="E42" s="7"/>
+      <c r="A42" s="24"/>
+      <c r="E42" s="24"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A43" s="3"/>
-      <c r="E43" s="3"/>
+      <c r="A43" s="23"/>
+      <c r="E43" s="23"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A44" s="3"/>
-      <c r="E44" s="3"/>
+      <c r="A44" s="23"/>
+      <c r="E44" s="23"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A45" s="3"/>
-      <c r="E45" s="3"/>
+      <c r="A45" s="23"/>
+      <c r="E45" s="23"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A46" s="3"/>
-      <c r="E46" s="3"/>
+      <c r="A46" s="23"/>
+      <c r="E46" s="23"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A48" s="3"/>
-      <c r="E48" s="3"/>
+      <c r="A48" s="23"/>
+      <c r="E48" s="23"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A49" s="4"/>
-      <c r="E49" s="4"/>
+      <c r="A49" s="21"/>
+      <c r="E49" s="21"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A50" s="4"/>
-      <c r="E50" s="4"/>
+      <c r="A50" s="21"/>
+      <c r="E50" s="21"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A51" s="4"/>
-      <c r="E51" s="4"/>
+      <c r="A51" s="21"/>
+      <c r="E51" s="21"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A52" s="3"/>
-      <c r="E52" s="3"/>
+      <c r="A52" s="23"/>
+      <c r="E52" s="23"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A53" s="3"/>
-      <c r="E53" s="3"/>
+      <c r="A53" s="23"/>
+      <c r="E53" s="23"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A54" s="3"/>
-      <c r="E54" s="3"/>
+      <c r="A54" s="23"/>
+      <c r="E54" s="23"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A55" s="3"/>
-      <c r="E55" s="3"/>
+      <c r="A55" s="23"/>
+      <c r="E55" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1568,16 +2126,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="23" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="11"/>
+      <c r="B1" s="14"/>
     </row>
     <row r="2" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="13" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1637,10 +2195,10 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="13" t="s">
         <v>17</v>
       </c>
     </row>
